--- a/medicine/Hématologie/Histocompatibilité/Histocompatibilité.xlsx
+++ b/medicine/Hématologie/Histocompatibilité/Histocompatibilité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Histocompatibilit%C3%A9</t>
+          <t>Histocompatibilité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’histocompatibilité désigne le taux de compatibilité entre deux organes ou tissus, qui permet à une greffe (d'organe ou de cellules) de ne pas être rejetée. Cette compatibilité dépend des patrimoines génétiques du donneur et du receveur. C'est la capacité pour le système immunitaire de reconnaître les molécules de CMH.
 </t>
